--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7355,4 +7356,4958 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>212.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3886</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.2213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>108.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5889</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5752</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4567</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1157</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7484</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6423</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6282</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3756</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0530</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0165</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8257</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6850</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6344</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5763</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5209</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12310,4 +12311,3404 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>209.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4474</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0711</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9563</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5107</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3162</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2680</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8600</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6441</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6284</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5844</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5763</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15711,4 +15712,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15720,7 +15721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15731,17 +15732,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15751,14 +15772,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.89</v>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -15767,14 +15810,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>129</v>
-      </c>
-      <c r="D3" t="n">
-        <v>81.91</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -15783,14 +15848,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>117</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66.53</v>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -15799,13 +15886,2239 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0716</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9077</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4620</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>62</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>57.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18017,7 +18018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18028,17 +18029,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18048,14 +18069,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.56</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18064,14 +18107,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>63.89</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -18080,14 +18145,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>129</v>
-      </c>
-      <c r="D4" t="n">
-        <v>81.91</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9499</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -18096,14 +18183,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>117</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66.53</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -18112,13 +18221,1837 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5894</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2722</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0959</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9853</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9714</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8229</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6498</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>57.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19934,7 +19935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19945,17 +19946,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19965,14 +19986,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.75</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19981,14 +20024,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.56</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -19997,14 +20062,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.89</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -20013,14 +20100,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>129</v>
-      </c>
-      <c r="D5" t="n">
-        <v>81.91</v>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -20029,14 +20138,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>117</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.53</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -20045,13 +20176,6221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4641</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3801</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3479</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014047</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3053</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2609</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1919</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9017</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8734</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8398</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7838</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6984</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6478</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5936</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5127</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4940</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002738</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泓德裕康债券A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014042</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002739</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泓德裕康债券C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>129</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>62</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>57.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603345-安井食品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>71.76000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
-        <v>32.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>24.56</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>63.89</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>81.91</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
-        <v>66.53</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>62</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>57.65</v>
       </c>
     </row>
@@ -600,6 +617,8372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H220"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7842</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6672</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1767</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1338</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1295</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0394</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9633</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7870</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7116</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6607</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012502</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华安盛混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>202105</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方广利回报债券- A/B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5583</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5213</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4431</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3643</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005461</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方希元可转债债券</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方广利回报债券- C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014042</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博道消费智航股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014047</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>012341</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>西藏东财中证食品饮料指数增强C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>012340</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>西藏东财中证食品饮料指数增强A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>71.98</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>015594</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6921,7 +15304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8837,7 +17220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11133,7 +19516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14533,7 +22916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19487,7 +27870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23989,7 +32372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
